--- a/output/1Y_P38_1VAL-D.xlsx
+++ b/output/1Y_P38_1VAL-D.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
   <si>
     <t>NAV</t>
   </si>
@@ -34,16 +34,22 @@
     <t>Offer Price</t>
   </si>
   <si>
-    <t>Required Value</t>
+    <t>Shares Owned</t>
   </si>
   <si>
     <t>Shares Bought</t>
   </si>
   <si>
-    <t>Shares Owned</t>
+    <t>Required Value</t>
   </si>
   <si>
     <t>Portfolio Value</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Wealth</t>
   </si>
   <si>
     <t>Total Cost</t>
@@ -64,10 +70,7 @@
     <t>CFI</t>
   </si>
   <si>
-    <t>Net Cash</t>
-  </si>
-  <si>
-    <t>Net Wealth</t>
+    <t>TWR</t>
   </si>
   <si>
     <t>Period</t>
@@ -648,24 +651,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -713,7 +716,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -729,41 +732,35 @@
       <c r="D2" s="1">
         <v>17.4608</v>
       </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
       <c r="F2" s="1">
         <v>572.7114</v>
       </c>
-      <c r="G2" s="1">
-        <v>572.7114</v>
-      </c>
       <c r="H2" s="1">
-        <v>9948.112300000001</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>17.4608</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.112300000001</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -779,41 +776,41 @@
       <c r="D3" s="1">
         <v>16.886</v>
       </c>
+      <c r="E3" s="1">
+        <v>572.7114</v>
+      </c>
       <c r="F3" s="1">
         <v>592.2066</v>
       </c>
-      <c r="G3" s="1">
-        <v>1164.918</v>
-      </c>
       <c r="H3" s="1">
-        <v>19568.8751</v>
+        <v>9620.6932</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>17.1686</v>
+        <v>9620.6932</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>17.4608</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19568.8751</v>
-      </c>
       <c r="Q3" s="3">
-        <v>-0.019</v>
+        <v>-0.0379</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -829,41 +826,41 @@
       <c r="D4" s="1">
         <v>17.59</v>
       </c>
+      <c r="E4" s="1">
+        <v>1164.918</v>
+      </c>
       <c r="F4" s="1">
         <v>568.5048</v>
       </c>
-      <c r="G4" s="1">
-        <v>1733.4228</v>
-      </c>
       <c r="H4" s="1">
-        <v>30332.8196</v>
+        <v>20384.6672</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>17.3068</v>
+        <v>20384.6672</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>17.1686</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>30332.8196</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0258</v>
+        <v>0.0389</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -879,41 +876,41 @@
       <c r="D5" s="1">
         <v>15.0121</v>
       </c>
+      <c r="E5" s="1">
+        <v>1733.4228</v>
+      </c>
       <c r="F5" s="1">
         <v>666.1292999999999</v>
       </c>
-      <c r="G5" s="1">
-        <v>2399.5522</v>
-      </c>
       <c r="H5" s="1">
-        <v>35835.3919</v>
+        <v>25887.2834</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>-0</v>
       </c>
       <c r="J5" s="1">
-        <v>16.6698</v>
+        <v>25887.2834</v>
       </c>
       <c r="K5" s="1">
+        <v>30000</v>
+      </c>
+      <c r="L5" s="1">
+        <v>17.3068</v>
+      </c>
+      <c r="M5" s="1">
         <v>3.57</v>
       </c>
-      <c r="L5" s="1">
-        <v>5569.4876</v>
-      </c>
-      <c r="M5" s="1">
-        <v>10000</v>
-      </c>
       <c r="N5" s="1">
-        <v>-4430.5124</v>
+        <v>3742.8816</v>
       </c>
       <c r="O5" s="1">
-        <v>5569.4876</v>
+        <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>41404.8795</v>
+        <v>-6257.1184</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0266</v>
+        <v>-0.148</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -929,41 +926,41 @@
       <c r="D6" s="1">
         <v>15.3645</v>
       </c>
+      <c r="E6" s="1">
+        <v>2399.5522</v>
+      </c>
       <c r="F6" s="1">
-        <v>696.1623</v>
-      </c>
-      <c r="G6" s="1">
-        <v>3095.7145</v>
+        <v>681.3017</v>
       </c>
       <c r="H6" s="1">
-        <v>47317.3767</v>
+        <v>36676.6749</v>
       </c>
       <c r="I6" s="1">
-        <v>50696.1859</v>
+        <v>3742.8816</v>
       </c>
       <c r="J6" s="1">
-        <v>16.3762</v>
+        <v>40419.5564</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40467.8602</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>16.8648</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
-        <v>-10696.1859</v>
+        <v>0</v>
       </c>
       <c r="O6" s="1">
-        <v>4873.3016</v>
+        <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>52190.6783</v>
+        <v>-10467.8602</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0153</v>
+        <v>0.1263</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -979,41 +976,41 @@
       <c r="D7" s="1">
         <v>16.4953</v>
       </c>
+      <c r="E7" s="1">
+        <v>3080.8539</v>
+      </c>
       <c r="F7" s="1">
-        <v>648.4384</v>
-      </c>
-      <c r="G7" s="1">
-        <v>3744.1529</v>
+        <v>634.5965</v>
       </c>
       <c r="H7" s="1">
-        <v>61440.4255</v>
+        <v>50555.8878</v>
       </c>
       <c r="I7" s="1">
-        <v>61392.3719</v>
+        <v>3275.0214</v>
       </c>
       <c r="J7" s="1">
-        <v>16.3969</v>
+        <v>53830.9092</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50935.7204</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>16.533</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
-        <v>-10696.1859</v>
+        <v>0</v>
       </c>
       <c r="O7" s="1">
-        <v>4177.1157</v>
+        <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>65617.54120000001</v>
+        <v>-10467.8602</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0551</v>
+        <v>0.0677</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1029,41 +1026,41 @@
       <c r="D8" s="1">
         <v>16.9701</v>
       </c>
+      <c r="E8" s="1">
+        <v>3715.4504</v>
+      </c>
       <c r="F8" s="1">
-        <v>630.296</v>
-      </c>
-      <c r="G8" s="1">
-        <v>4374.4489</v>
+        <v>616.8414</v>
       </c>
       <c r="H8" s="1">
-        <v>73849.8832</v>
+        <v>62724.6054</v>
       </c>
       <c r="I8" s="1">
-        <v>72088.5578</v>
+        <v>2807.1612</v>
       </c>
       <c r="J8" s="1">
-        <v>16.4795</v>
+        <v>65531.7665</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>61403.5806</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>16.5266</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
-        <v>-10696.1859</v>
+        <v>0</v>
       </c>
       <c r="O8" s="1">
-        <v>3480.9297</v>
+        <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>77330.81299999999</v>
+        <v>-10467.8602</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0227</v>
+        <v>0.0266</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1079,41 +1076,41 @@
       <c r="D9" s="1">
         <v>17.9905</v>
       </c>
+      <c r="E9" s="1">
+        <v>4332.2918</v>
+      </c>
       <c r="F9" s="1">
-        <v>594.5463</v>
-      </c>
-      <c r="G9" s="1">
-        <v>4968.9952</v>
+        <v>581.8549</v>
       </c>
       <c r="H9" s="1">
-        <v>88931.1011</v>
+        <v>77535.89290000001</v>
       </c>
       <c r="I9" s="1">
-        <v>82784.7438</v>
+        <v>2339.301</v>
       </c>
       <c r="J9" s="1">
-        <v>16.6603</v>
+        <v>79875.1939</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>71871.4408</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>16.5897</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
-        <v>-10696.1859</v>
+        <v>0</v>
       </c>
       <c r="O9" s="1">
-        <v>2784.7438</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>91715.8449</v>
+        <v>-10467.8602</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0502</v>
+        <v>0.0575</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1129,41 +1126,41 @@
       <c r="D10" s="1">
         <v>18.2369</v>
       </c>
+      <c r="E10" s="1">
+        <v>4914.1467</v>
+      </c>
       <c r="F10" s="1">
-        <v>586.5134</v>
-      </c>
-      <c r="G10" s="1">
-        <v>5555.5086</v>
+        <v>573.9934</v>
       </c>
       <c r="H10" s="1">
-        <v>100789.7036</v>
+        <v>89153.9234</v>
       </c>
       <c r="I10" s="1">
-        <v>93480.92969999999</v>
+        <v>1871.4408</v>
       </c>
       <c r="J10" s="1">
-        <v>16.8267</v>
+        <v>91025.3642</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>82339.30100000001</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>16.7556</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
-        <v>-10696.1859</v>
+        <v>0</v>
       </c>
       <c r="O10" s="1">
-        <v>2088.5578</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>102878.2614</v>
+        <v>-10467.8602</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0114</v>
+        <v>0.0128</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1179,41 +1176,41 @@
       <c r="D11" s="1">
         <v>19.1395</v>
       </c>
+      <c r="E11" s="1">
+        <v>5488.1401</v>
+      </c>
       <c r="F11" s="1">
-        <v>558.854</v>
-      </c>
-      <c r="G11" s="1">
-        <v>6114.3626</v>
+        <v>546.9244</v>
       </c>
       <c r="H11" s="1">
-        <v>116418.6865</v>
+        <v>104495.2848</v>
       </c>
       <c r="I11" s="1">
-        <v>104177.1157</v>
+        <v>1403.5806</v>
       </c>
       <c r="J11" s="1">
-        <v>17.0381</v>
+        <v>105898.8654</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>92807.1612</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>16.9105</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
-        <v>-10696.1859</v>
+        <v>0</v>
       </c>
       <c r="O11" s="1">
-        <v>1392.3719</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>117811.0584</v>
+        <v>-10467.8602</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0437</v>
+        <v>0.0482</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1229,41 +1226,41 @@
       <c r="D12" s="1">
         <v>20.979</v>
       </c>
+      <c r="E12" s="1">
+        <v>6035.0645</v>
+      </c>
       <c r="F12" s="1">
-        <v>509.852</v>
-      </c>
-      <c r="G12" s="1">
-        <v>6624.2146</v>
+        <v>498.9685</v>
       </c>
       <c r="H12" s="1">
-        <v>138249.3465</v>
+        <v>125953.607</v>
       </c>
       <c r="I12" s="1">
-        <v>114873.3016</v>
+        <v>935.7204</v>
       </c>
       <c r="J12" s="1">
-        <v>17.3414</v>
+        <v>126889.3274</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>103275.0214</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>17.1125</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
-        <v>-10696.1859</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>696.1858999999999</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>138945.5324</v>
+        <v>-10467.8602</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0871</v>
+        <v>0.0948</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1279,41 +1276,41 @@
       <c r="D13" s="1">
         <v>22.3911</v>
       </c>
+      <c r="E13" s="1">
+        <v>6534.033</v>
+      </c>
       <c r="F13" s="1">
-        <v>477.6981</v>
-      </c>
-      <c r="G13" s="1">
-        <v>7101.9127</v>
+        <v>467.5009</v>
       </c>
       <c r="H13" s="1">
-        <v>158195.8162</v>
+        <v>145546.2389</v>
       </c>
       <c r="I13" s="1">
-        <v>125569.4876</v>
+        <v>467.8602</v>
       </c>
       <c r="J13" s="1">
-        <v>17.6811</v>
+        <v>146014.0991</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>113742.8816</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>17.4078</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>-10696.1859</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>158195.8162</v>
+        <v>-10467.8602</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0621</v>
+        <v>0.0667</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1329,41 +1326,41 @@
       <c r="D14" s="1">
         <v>23.2533</v>
       </c>
+      <c r="E14" s="1">
+        <v>7001.534</v>
+      </c>
       <c r="F14" s="1">
-        <v>-7101.9127</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
+        <v>-6534.033</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>161964.3845</v>
       </c>
       <c r="I14" s="1">
-        <v>125569.4876</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>17.6811</v>
+        <v>161964.3845</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>113742.8816</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>16.2454</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>164286.4165</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>164286.4165</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>164286.4165</v>
+        <v>151149.8256</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0232</v>
+        <v>0.0381</v>
       </c>
     </row>
   </sheetData>
@@ -1383,24 +1380,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1448,7 +1445,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1465,43 +1462,37 @@
         <v>17.4608</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>572.7114</v>
       </c>
       <c r="G2" s="1">
-        <v>572.7114</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.112300000001</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>17.4608</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.112300000001</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -1518,43 +1509,43 @@
         <v>16.886</v>
       </c>
       <c r="E3" s="1">
-        <v>20000</v>
+        <v>572.7114</v>
       </c>
       <c r="F3" s="1">
         <v>592.2066</v>
       </c>
       <c r="G3" s="1">
-        <v>1164.918</v>
+        <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>19568.8751</v>
+        <v>9620.6932</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>17.1686</v>
+        <v>9620.6932</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>17.4608</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19568.8751</v>
-      </c>
       <c r="Q3" s="3">
-        <v>-0.019</v>
+        <v>-0.0379</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1571,43 +1562,43 @@
         <v>17.59</v>
       </c>
       <c r="E4" s="1">
-        <v>30000</v>
+        <v>1164.918</v>
       </c>
       <c r="F4" s="1">
         <v>549.4853000000001</v>
       </c>
       <c r="G4" s="1">
-        <v>1714.4033</v>
+        <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>30000</v>
+        <v>20384.6672</v>
       </c>
       <c r="I4" s="1">
-        <v>29665.4458</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>17.3037</v>
+        <v>20384.6672</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>19665.4458</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>16.8814</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-9665.4458</v>
       </c>
-      <c r="O4" s="1">
-        <v>334.5542</v>
-      </c>
-      <c r="P4" s="1">
-        <v>30334.5542</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0259</v>
+        <v>0.0389</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1624,43 +1615,43 @@
         <v>15.0121</v>
       </c>
       <c r="E5" s="1">
-        <v>40000</v>
+        <v>1714.4033</v>
       </c>
       <c r="F5" s="1">
         <v>688.415</v>
       </c>
       <c r="G5" s="1">
-        <v>2402.8182</v>
+        <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>35884.168</v>
+        <v>25603.2414</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>334.5542</v>
       </c>
       <c r="J5" s="1">
-        <v>16.6471</v>
+        <v>25937.7955</v>
       </c>
       <c r="K5" s="1">
+        <v>30000</v>
+      </c>
+      <c r="L5" s="1">
+        <v>17.4988</v>
+      </c>
+      <c r="M5" s="1">
         <v>3.57</v>
       </c>
-      <c r="L5" s="1">
-        <v>5508.3777</v>
-      </c>
-      <c r="M5" s="1">
-        <v>10000</v>
-      </c>
       <c r="N5" s="1">
-        <v>-4826.1764</v>
+        <v>3742.8816</v>
       </c>
       <c r="O5" s="1">
-        <v>5508.3777</v>
+        <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>41392.5457</v>
+        <v>-6591.6726</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0262</v>
+        <v>-0.1464</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1677,43 +1668,43 @@
         <v>15.3645</v>
       </c>
       <c r="E6" s="1">
-        <v>50000</v>
+        <v>2402.8182</v>
       </c>
       <c r="F6" s="1">
         <v>868.4055</v>
       </c>
       <c r="G6" s="1">
-        <v>3271.2237</v>
+        <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>50000</v>
+        <v>36726.5961</v>
       </c>
       <c r="I6" s="1">
-        <v>53342.6158</v>
+        <v>3742.8816</v>
       </c>
       <c r="J6" s="1">
-        <v>16.3066</v>
+        <v>40469.4776</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>43342.6158</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>18.0382</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-13342.6158</v>
       </c>
-      <c r="O6" s="1">
-        <v>2165.7619</v>
-      </c>
-      <c r="P6" s="1">
-        <v>52165.7619</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.015</v>
+        <v>0.1261</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1730,43 +1721,43 @@
         <v>16.4953</v>
       </c>
       <c r="E7" s="1">
-        <v>60000</v>
+        <v>3271.2237</v>
       </c>
       <c r="F7" s="1">
         <v>385.1503</v>
       </c>
       <c r="G7" s="1">
-        <v>3656.374</v>
+        <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>60000</v>
+        <v>53679.7995</v>
       </c>
       <c r="I7" s="1">
-        <v>59695.7852</v>
+        <v>400.2657</v>
       </c>
       <c r="J7" s="1">
-        <v>16.3265</v>
+        <v>54080.0652</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>49695.7852</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>15.1918</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-6353.1693</v>
       </c>
-      <c r="O7" s="1">
-        <v>5812.5925</v>
-      </c>
-      <c r="P7" s="1">
-        <v>65812.5925</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0587</v>
+        <v>0.07149999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1783,43 +1774,43 @@
         <v>16.9701</v>
       </c>
       <c r="E8" s="1">
-        <v>70000</v>
+        <v>3656.374</v>
       </c>
       <c r="F8" s="1">
         <v>490.0296</v>
       </c>
       <c r="G8" s="1">
-        <v>4146.4036</v>
+        <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>70000</v>
+        <v>61727.2711</v>
       </c>
       <c r="I8" s="1">
-        <v>68011.6367</v>
+        <v>4047.0964</v>
       </c>
       <c r="J8" s="1">
-        <v>16.4026</v>
+        <v>65774.36749999999</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>58011.6367</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>15.8659</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-8315.851500000001</v>
       </c>
-      <c r="O8" s="1">
-        <v>7496.741</v>
-      </c>
-      <c r="P8" s="1">
-        <v>77496.74099999999</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0222</v>
+        <v>0.0264</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1836,43 +1827,43 @@
         <v>17.9905</v>
       </c>
       <c r="E9" s="1">
-        <v>80000</v>
+        <v>4146.4036</v>
       </c>
       <c r="F9" s="1">
         <v>323.5694</v>
       </c>
       <c r="G9" s="1">
-        <v>4469.973</v>
+        <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>80000</v>
+        <v>74209.0143</v>
       </c>
       <c r="I9" s="1">
-        <v>73832.8115</v>
+        <v>5731.2448</v>
       </c>
       <c r="J9" s="1">
-        <v>16.5175</v>
+        <v>79940.2591</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>63832.8115</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>15.3947</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-5821.1747</v>
       </c>
-      <c r="O9" s="1">
-        <v>11675.5663</v>
-      </c>
-      <c r="P9" s="1">
-        <v>91675.56630000001</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0478</v>
+        <v>0.055</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1889,43 +1880,43 @@
         <v>18.2369</v>
       </c>
       <c r="E10" s="1">
-        <v>90000</v>
+        <v>4469.973</v>
       </c>
       <c r="F10" s="1">
         <v>490.8093</v>
       </c>
       <c r="G10" s="1">
-        <v>4960.7823</v>
+        <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>90000</v>
+        <v>81095.5904</v>
       </c>
       <c r="I10" s="1">
-        <v>82783.6516</v>
+        <v>9910.070100000001</v>
       </c>
       <c r="J10" s="1">
-        <v>16.6876</v>
+        <v>91005.6605</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>72783.6516</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>16.2828</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-8950.840200000001</v>
       </c>
-      <c r="O10" s="1">
-        <v>12724.7261</v>
-      </c>
-      <c r="P10" s="1">
-        <v>102724.7261</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0103</v>
+        <v>0.0118</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1942,43 +1933,43 @@
         <v>19.1395</v>
       </c>
       <c r="E11" s="1">
-        <v>100000</v>
+        <v>4960.7823</v>
       </c>
       <c r="F11" s="1">
         <v>291.2634</v>
       </c>
       <c r="G11" s="1">
-        <v>5252.0457</v>
+        <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>100000</v>
+        <v>94454.2864</v>
       </c>
       <c r="I11" s="1">
-        <v>88358.2877</v>
+        <v>10959.2299</v>
       </c>
       <c r="J11" s="1">
-        <v>16.8236</v>
+        <v>105413.5163</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>78358.2877</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>15.7956</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-5574.6361</v>
       </c>
-      <c r="O11" s="1">
-        <v>17150.09</v>
-      </c>
-      <c r="P11" s="1">
-        <v>117150.09</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0393</v>
+        <v>0.0436</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1995,43 +1986,43 @@
         <v>20.979</v>
       </c>
       <c r="E12" s="1">
-        <v>110000</v>
+        <v>5252.0457</v>
       </c>
       <c r="F12" s="1">
         <v>18.6021</v>
       </c>
       <c r="G12" s="1">
-        <v>5270.6478</v>
+        <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>110000</v>
+        <v>109611.7688</v>
       </c>
       <c r="I12" s="1">
-        <v>88748.541</v>
+        <v>15384.5939</v>
       </c>
       <c r="J12" s="1">
-        <v>16.8383</v>
+        <v>124996.3626</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>78748.541</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>14.9939</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-390.2533</v>
       </c>
-      <c r="O12" s="1">
-        <v>26759.8367</v>
-      </c>
-      <c r="P12" s="1">
-        <v>136759.8367</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0756</v>
+        <v>0.083</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2048,43 +2039,43 @@
         <v>22.3911</v>
       </c>
       <c r="E13" s="1">
-        <v>120000</v>
+        <v>5270.6478</v>
       </c>
       <c r="F13" s="1">
         <v>116.5334</v>
       </c>
       <c r="G13" s="1">
-        <v>5387.1812</v>
+        <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>120000</v>
+        <v>117404.206</v>
       </c>
       <c r="I13" s="1">
-        <v>91357.8529</v>
+        <v>24994.3406</v>
       </c>
       <c r="J13" s="1">
-        <v>16.9584</v>
+        <v>142398.5466</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>81357.8529</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>15.436</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-2609.3119</v>
       </c>
-      <c r="O13" s="1">
-        <v>34150.5248</v>
-      </c>
-      <c r="P13" s="1">
-        <v>154150.5248</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0504</v>
+        <v>0.0548</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2101,7 +2092,7 @@
         <v>23.2533</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>5387.1812</v>
       </c>
       <c r="F14" s="1">
         <v>-5387.1812</v>
@@ -2110,34 +2101,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>124620.0466</v>
       </c>
       <c r="I14" s="1">
-        <v>91357.8529</v>
+        <v>32385.0287</v>
       </c>
       <c r="J14" s="1">
-        <v>16.9584</v>
+        <v>157005.0753</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>81357.8529</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>15.1021</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>124620.0466</v>
       </c>
-      <c r="O14" s="1">
-        <v>158770.5714</v>
-      </c>
-      <c r="P14" s="1">
-        <v>158770.5714</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.0328</v>
+        <v>0.0302</v>
       </c>
     </row>
   </sheetData>
@@ -2157,24 +2148,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2222,7 +2213,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -2239,43 +2230,37 @@
         <v>17.4608</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>572.7114</v>
       </c>
       <c r="G2" s="1">
-        <v>572.7114</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.112300000001</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>17.4608</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.112300000001</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -2292,43 +2277,43 @@
         <v>16.886</v>
       </c>
       <c r="E3" s="1">
-        <v>20050</v>
+        <v>572.7114</v>
       </c>
       <c r="F3" s="1">
         <v>592.2066</v>
       </c>
       <c r="G3" s="1">
-        <v>1164.918</v>
+        <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>19568.8751</v>
+        <v>9620.6932</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>17.1686</v>
+        <v>9620.6932</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>17.4608</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19568.8751</v>
-      </c>
       <c r="Q3" s="3">
-        <v>-0.019</v>
+        <v>-0.0379</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2345,43 +2330,43 @@
         <v>17.59</v>
       </c>
       <c r="E4" s="1">
-        <v>30150.25</v>
+        <v>1164.918</v>
       </c>
       <c r="F4" s="1">
         <v>558.0716</v>
       </c>
       <c r="G4" s="1">
-        <v>1722.9896</v>
+        <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>30150.25</v>
+        <v>20384.6672</v>
       </c>
       <c r="I4" s="1">
-        <v>29816.4789</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>17.3051</v>
+        <v>20384.6672</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>19816.4789</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>17.0111</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-9816.4789</v>
       </c>
-      <c r="O4" s="1">
-        <v>183.5211</v>
-      </c>
-      <c r="P4" s="1">
-        <v>30333.7711</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0259</v>
+        <v>0.0389</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2398,43 +2383,43 @@
         <v>15.0121</v>
       </c>
       <c r="E5" s="1">
-        <v>40301.0012</v>
+        <v>1722.9896</v>
       </c>
       <c r="F5" s="1">
         <v>678.3542</v>
       </c>
       <c r="G5" s="1">
-        <v>2401.3438</v>
+        <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>35862.1482</v>
+        <v>25731.4709</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>183.5211</v>
       </c>
       <c r="J5" s="1">
-        <v>16.6573</v>
+        <v>25914.992</v>
       </c>
       <c r="K5" s="1">
+        <v>30000</v>
+      </c>
+      <c r="L5" s="1">
+        <v>17.4116</v>
+      </c>
+      <c r="M5" s="1">
         <v>3.57</v>
       </c>
-      <c r="L5" s="1">
-        <v>5535.9655</v>
-      </c>
-      <c r="M5" s="1">
-        <v>10000</v>
-      </c>
       <c r="N5" s="1">
-        <v>-4647.5556</v>
+        <v>3742.8816</v>
       </c>
       <c r="O5" s="1">
-        <v>5535.9655</v>
+        <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>41398.1137</v>
+        <v>-6440.6395</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0264</v>
+        <v>-0.1471</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2451,43 +2436,43 @@
         <v>15.3645</v>
       </c>
       <c r="E6" s="1">
+        <v>2401.3438</v>
+      </c>
+      <c r="F6" s="1">
+        <v>894.4568</v>
+      </c>
+      <c r="G6" s="1">
         <v>50502.5063</v>
       </c>
-      <c r="F6" s="1">
-        <v>902.7560999999999</v>
-      </c>
-      <c r="G6" s="1">
-        <v>3304.0999</v>
-      </c>
       <c r="H6" s="1">
-        <v>50502.5063</v>
+        <v>36704.0594</v>
       </c>
       <c r="I6" s="1">
-        <v>53870.3966</v>
+        <v>3742.8816</v>
       </c>
       <c r="J6" s="1">
-        <v>16.3041</v>
+        <v>40446.9409</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>43742.8816</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>18.216</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
-        <v>-13870.3966</v>
+        <v>0</v>
       </c>
       <c r="O6" s="1">
-        <v>1665.5689</v>
+        <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>52168.0752</v>
+        <v>-13742.8816</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.015</v>
+        <v>0.1262</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2504,43 +2489,43 @@
         <v>16.4953</v>
       </c>
       <c r="E7" s="1">
+        <v>3295.8006</v>
+      </c>
+      <c r="F7" s="1">
+        <v>406.5839</v>
+      </c>
+      <c r="G7" s="1">
         <v>60755.0188</v>
       </c>
-      <c r="F7" s="1">
-        <v>398.2846</v>
-      </c>
-      <c r="G7" s="1">
-        <v>3702.3845</v>
-      </c>
       <c r="H7" s="1">
-        <v>60755.0188</v>
+        <v>54083.0988</v>
       </c>
       <c r="I7" s="1">
-        <v>60440.2203</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>16.3247</v>
+        <v>54083.0988</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50449.6051</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>15.3072</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
-        <v>-6569.8237</v>
+        <v>0</v>
       </c>
       <c r="O7" s="1">
-        <v>5095.7452</v>
+        <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>65850.764</v>
+        <v>-6706.7236</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0592</v>
+        <v>0.0721</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2557,43 +2542,43 @@
         <v>16.9701</v>
       </c>
       <c r="E8" s="1">
-        <v>71058.7939</v>
+        <v>3702.3845</v>
       </c>
       <c r="F8" s="1">
         <v>506.736</v>
       </c>
       <c r="G8" s="1">
-        <v>4209.1205</v>
+        <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>71058.7939</v>
+        <v>62504.0252</v>
       </c>
       <c r="I8" s="1">
-        <v>69039.5817</v>
+        <v>3293.2764</v>
       </c>
       <c r="J8" s="1">
-        <v>16.4024</v>
+        <v>65797.30160000001</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>59048.9666</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>15.9489</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-8599.3614</v>
       </c>
-      <c r="O8" s="1">
-        <v>6496.3838</v>
-      </c>
-      <c r="P8" s="1">
-        <v>77555.1777</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0225</v>
+        <v>0.0267</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2610,43 +2595,43 @@
         <v>17.9905</v>
       </c>
       <c r="E9" s="1">
-        <v>81414.0879</v>
+        <v>4209.1205</v>
       </c>
       <c r="F9" s="1">
         <v>339.8641</v>
       </c>
       <c r="G9" s="1">
-        <v>4548.9846</v>
+        <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>81414.0879</v>
+        <v>75331.4721</v>
       </c>
       <c r="I9" s="1">
-        <v>75153.90670000001</v>
+        <v>4693.915</v>
       </c>
       <c r="J9" s="1">
-        <v>16.521</v>
+        <v>80025.38710000001</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>65163.2916</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>15.4815</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-6114.325</v>
       </c>
-      <c r="O9" s="1">
-        <v>10382.0588</v>
-      </c>
-      <c r="P9" s="1">
-        <v>91796.14659999999</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0484</v>
+        <v>0.0558</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2663,43 +2648,43 @@
         <v>18.2369</v>
       </c>
       <c r="E10" s="1">
-        <v>91821.1583</v>
+        <v>4548.9846</v>
       </c>
       <c r="F10" s="1">
         <v>512.1795</v>
       </c>
       <c r="G10" s="1">
-        <v>5061.1641</v>
+        <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>91821.1583</v>
+        <v>82529.04399999999</v>
       </c>
       <c r="I10" s="1">
-        <v>84494.47319999999</v>
+        <v>8579.589900000001</v>
       </c>
       <c r="J10" s="1">
-        <v>16.6947</v>
+        <v>91108.6339</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>74503.8581</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>16.3781</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-9340.566500000001</v>
       </c>
-      <c r="O10" s="1">
-        <v>11041.4923</v>
-      </c>
-      <c r="P10" s="1">
-        <v>102862.6506</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0105</v>
+        <v>0.012</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2716,43 +2701,43 @@
         <v>19.1395</v>
       </c>
       <c r="E11" s="1">
-        <v>102280.2641</v>
+        <v>5061.1641</v>
       </c>
       <c r="F11" s="1">
         <v>310.642</v>
       </c>
       <c r="G11" s="1">
-        <v>5371.8062</v>
+        <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>102280.2641</v>
+        <v>96365.5776</v>
       </c>
       <c r="I11" s="1">
-        <v>90440.0065</v>
+        <v>9239.023499999999</v>
       </c>
       <c r="J11" s="1">
-        <v>16.8361</v>
+        <v>105604.601</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>80449.39139999999</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>15.8954</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-5945.5333</v>
       </c>
-      <c r="O11" s="1">
-        <v>15095.959</v>
-      </c>
-      <c r="P11" s="1">
-        <v>117376.2231</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.04</v>
+        <v>0.0445</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2769,43 +2754,43 @@
         <v>20.979</v>
       </c>
       <c r="E12" s="1">
-        <v>112791.6654</v>
+        <v>5371.8062</v>
       </c>
       <c r="F12" s="1">
         <v>32.6042</v>
       </c>
       <c r="G12" s="1">
-        <v>5404.4104</v>
+        <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>112791.6654</v>
+        <v>112111.2066</v>
       </c>
       <c r="I12" s="1">
-        <v>91124.0094</v>
+        <v>13293.4902</v>
       </c>
       <c r="J12" s="1">
-        <v>16.861</v>
+        <v>125404.6968</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>81133.3943</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>15.1036</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-684.0029</v>
       </c>
-      <c r="O12" s="1">
-        <v>24411.9561</v>
-      </c>
-      <c r="P12" s="1">
-        <v>137203.6215</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0772</v>
+        <v>0.0848</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2822,43 +2807,43 @@
         <v>22.3911</v>
       </c>
       <c r="E13" s="1">
-        <v>123355.6237</v>
+        <v>5404.4104</v>
       </c>
       <c r="F13" s="1">
         <v>133.4155</v>
       </c>
       <c r="G13" s="1">
-        <v>5537.8258</v>
+        <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>123355.6237</v>
+        <v>120383.7811</v>
       </c>
       <c r="I13" s="1">
-        <v>94111.3282</v>
+        <v>22609.4873</v>
       </c>
       <c r="J13" s="1">
-        <v>16.9943</v>
+        <v>142993.2684</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>84120.71309999999</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>15.5652</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-2987.3189</v>
       </c>
-      <c r="O13" s="1">
-        <v>31424.6373</v>
-      </c>
-      <c r="P13" s="1">
-        <v>154780.261</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0515</v>
+        <v>0.056</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2875,7 +2860,7 @@
         <v>23.2533</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>5537.8258</v>
       </c>
       <c r="F14" s="1">
         <v>-5537.8258</v>
@@ -2884,34 +2869,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>128104.8631</v>
       </c>
       <c r="I14" s="1">
-        <v>94111.3282</v>
+        <v>29622.1684</v>
       </c>
       <c r="J14" s="1">
-        <v>16.9943</v>
+        <v>157727.0316</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>84120.71309999999</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>15.1902</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>128104.8631</v>
       </c>
-      <c r="O14" s="1">
-        <v>159529.5004</v>
-      </c>
-      <c r="P14" s="1">
-        <v>159529.5004</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.0319</v>
+        <v>0.0309</v>
       </c>
     </row>
   </sheetData>
@@ -2931,24 +2916,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2996,7 +2981,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3013,43 +2998,37 @@
         <v>17.4608</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>572.7114</v>
       </c>
       <c r="G2" s="1">
-        <v>572.7114</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.112300000001</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>17.4608</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.112300000001</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3066,43 +3045,43 @@
         <v>16.886</v>
       </c>
       <c r="E3" s="1">
-        <v>20100</v>
+        <v>572.7114</v>
       </c>
       <c r="F3" s="1">
         <v>592.2066</v>
       </c>
       <c r="G3" s="1">
-        <v>1164.918</v>
+        <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>19568.8751</v>
+        <v>9620.6932</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>17.1686</v>
+        <v>9620.6932</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>17.4608</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19568.8751</v>
-      </c>
       <c r="Q3" s="3">
-        <v>-0.019</v>
+        <v>-0.0379</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3119,43 +3098,43 @@
         <v>17.59</v>
       </c>
       <c r="E4" s="1">
-        <v>30301</v>
+        <v>1164.918</v>
       </c>
       <c r="F4" s="1">
         <v>566.6864</v>
       </c>
       <c r="G4" s="1">
-        <v>1731.6045</v>
+        <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>30301</v>
+        <v>20384.6672</v>
       </c>
       <c r="I4" s="1">
-        <v>29968.0146</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>17.3065</v>
+        <v>20384.6672</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>19968.0146</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>17.1411</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-9968.0146</v>
       </c>
-      <c r="O4" s="1">
-        <v>31.9854</v>
-      </c>
-      <c r="P4" s="1">
-        <v>30332.9854</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0258</v>
+        <v>0.0389</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3172,43 +3151,43 @@
         <v>15.0121</v>
       </c>
       <c r="E5" s="1">
-        <v>40604.01</v>
+        <v>1731.6045</v>
       </c>
       <c r="F5" s="1">
         <v>668.26</v>
       </c>
       <c r="G5" s="1">
-        <v>2399.8644</v>
+        <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>35840.0552</v>
+        <v>25860.1272</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>31.9854</v>
       </c>
       <c r="J5" s="1">
-        <v>16.6676</v>
+        <v>25892.1126</v>
       </c>
       <c r="K5" s="1">
+        <v>30000</v>
+      </c>
+      <c r="L5" s="1">
+        <v>17.325</v>
+      </c>
+      <c r="M5" s="1">
         <v>3.57</v>
       </c>
-      <c r="L5" s="1">
-        <v>5563.6451</v>
-      </c>
-      <c r="M5" s="1">
-        <v>10000</v>
-      </c>
       <c r="N5" s="1">
-        <v>-4468.3403</v>
+        <v>3742.8816</v>
       </c>
       <c r="O5" s="1">
-        <v>5563.6451</v>
+        <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>41403.7003</v>
+        <v>-6289.1039</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0265</v>
+        <v>-0.1479</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3225,43 +3204,43 @@
         <v>15.3645</v>
       </c>
       <c r="E6" s="1">
+        <v>2399.8644</v>
+      </c>
+      <c r="F6" s="1">
+        <v>894.4568</v>
+      </c>
+      <c r="G6" s="1">
         <v>51010.0501</v>
       </c>
-      <c r="F6" s="1">
-        <v>937.4413</v>
-      </c>
-      <c r="G6" s="1">
-        <v>3337.3057</v>
-      </c>
       <c r="H6" s="1">
-        <v>51010.0501</v>
+        <v>36681.4476</v>
       </c>
       <c r="I6" s="1">
-        <v>54403.3165</v>
+        <v>3742.8816</v>
       </c>
       <c r="J6" s="1">
-        <v>16.3016</v>
+        <v>40424.3292</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>43742.8816</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>18.2272</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
-        <v>-14403.3165</v>
+        <v>0</v>
       </c>
       <c r="O6" s="1">
-        <v>1160.3286</v>
+        <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>52170.3787</v>
+        <v>-13742.8816</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0149</v>
+        <v>0.1263</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3278,43 +3257,43 @@
         <v>16.4953</v>
       </c>
       <c r="E7" s="1">
+        <v>3294.3212</v>
+      </c>
+      <c r="F7" s="1">
+        <v>454.6901</v>
+      </c>
+      <c r="G7" s="1">
         <v>61520.1506</v>
       </c>
-      <c r="F7" s="1">
-        <v>411.7056</v>
-      </c>
-      <c r="G7" s="1">
-        <v>3749.0113</v>
-      </c>
       <c r="H7" s="1">
-        <v>61520.1506</v>
+        <v>54058.8229</v>
       </c>
       <c r="I7" s="1">
-        <v>61194.5238</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>16.3228</v>
+        <v>54058.8229</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>51243.1307</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>15.555</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
-        <v>-6791.2073</v>
+        <v>0</v>
       </c>
       <c r="O7" s="1">
-        <v>4369.1213</v>
+        <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>65889.27190000001</v>
+        <v>-7500.2491</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0598</v>
+        <v>0.0721</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3331,43 +3310,43 @@
         <v>16.9701</v>
       </c>
       <c r="E8" s="1">
-        <v>72135.3521</v>
+        <v>3749.0113</v>
       </c>
       <c r="F8" s="1">
         <v>523.8785</v>
       </c>
       <c r="G8" s="1">
-        <v>4272.8898</v>
+        <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>72135.3521</v>
+        <v>63291.1835</v>
       </c>
       <c r="I8" s="1">
-        <v>70084.79369999999</v>
+        <v>2499.7509</v>
       </c>
       <c r="J8" s="1">
-        <v>16.4022</v>
+        <v>65790.9344</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60133.4006</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>16.0398</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-8890.269899999999</v>
       </c>
-      <c r="O8" s="1">
-        <v>5478.8514</v>
-      </c>
-      <c r="P8" s="1">
-        <v>77614.2035</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0227</v>
+        <v>0.027</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3384,43 +3363,43 @@
         <v>17.9905</v>
       </c>
       <c r="E9" s="1">
-        <v>82856.7056</v>
+        <v>4272.8898</v>
       </c>
       <c r="F9" s="1">
         <v>356.7007</v>
       </c>
       <c r="G9" s="1">
-        <v>4629.5904</v>
+        <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>82856.7056</v>
+        <v>76472.7625</v>
       </c>
       <c r="I9" s="1">
-        <v>76502.01700000001</v>
+        <v>3609.481</v>
       </c>
       <c r="J9" s="1">
-        <v>16.5246</v>
+        <v>80082.2435</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>66550.62390000001</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>15.5751</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-6417.2233</v>
       </c>
-      <c r="O9" s="1">
-        <v>9061.6281</v>
-      </c>
-      <c r="P9" s="1">
-        <v>91918.3337</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0491</v>
+        <v>0.0566</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3437,43 +3416,43 @@
         <v>18.2369</v>
       </c>
       <c r="E10" s="1">
-        <v>93685.2727</v>
+        <v>4629.5904</v>
       </c>
       <c r="F10" s="1">
         <v>534.3233</v>
       </c>
       <c r="G10" s="1">
-        <v>5163.9138</v>
+        <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>93685.2727</v>
+        <v>83991.4182</v>
       </c>
       <c r="I10" s="1">
-        <v>86246.4185</v>
+        <v>7192.2577</v>
       </c>
       <c r="J10" s="1">
-        <v>16.7018</v>
+        <v>91183.6759</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>76295.02529999999</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>16.4799</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-9744.401400000001</v>
       </c>
-      <c r="O10" s="1">
-        <v>9317.2266</v>
-      </c>
-      <c r="P10" s="1">
-        <v>103002.4993</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0106</v>
+        <v>0.0122</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3490,43 +3469,43 @@
         <v>19.1395</v>
       </c>
       <c r="E11" s="1">
-        <v>104622.1254</v>
+        <v>5163.9138</v>
       </c>
       <c r="F11" s="1">
         <v>330.888</v>
       </c>
       <c r="G11" s="1">
-        <v>5494.8018</v>
+        <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>104622.1254</v>
+        <v>98321.9509</v>
       </c>
       <c r="I11" s="1">
-        <v>92579.45020000001</v>
+        <v>7447.8563</v>
       </c>
       <c r="J11" s="1">
-        <v>16.8486</v>
+        <v>105769.8071</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>82628.057</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>16.0011</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-6333.0317</v>
       </c>
-      <c r="O11" s="1">
-        <v>12984.1949</v>
-      </c>
-      <c r="P11" s="1">
-        <v>117606.3203</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0407</v>
+        <v>0.0453</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3543,43 +3522,43 @@
         <v>20.979</v>
       </c>
       <c r="E12" s="1">
-        <v>115668.3467</v>
+        <v>5494.8018</v>
       </c>
       <c r="F12" s="1">
         <v>47.4447</v>
       </c>
       <c r="G12" s="1">
-        <v>5542.2465</v>
+        <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>115668.3467</v>
+        <v>114678.1622</v>
       </c>
       <c r="I12" s="1">
-        <v>93574.7919</v>
+        <v>11114.8245</v>
       </c>
       <c r="J12" s="1">
-        <v>16.8839</v>
+        <v>125792.9867</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>83623.39870000001</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>15.2186</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-995.3416999999999</v>
       </c>
-      <c r="O12" s="1">
-        <v>21988.8532</v>
-      </c>
-      <c r="P12" s="1">
-        <v>137657.1999</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0788</v>
+        <v>0.0866</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3596,43 +3575,43 @@
         <v>22.3911</v>
       </c>
       <c r="E13" s="1">
-        <v>126825.0301</v>
+        <v>5542.2465</v>
       </c>
       <c r="F13" s="1">
         <v>151.332</v>
       </c>
       <c r="G13" s="1">
-        <v>5693.5785</v>
+        <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>126825.0301</v>
+        <v>123454.0945</v>
       </c>
       <c r="I13" s="1">
-        <v>96963.28200000001</v>
+        <v>20119.4828</v>
       </c>
       <c r="J13" s="1">
-        <v>17.0303</v>
+        <v>143573.5773</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>87011.88890000001</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>15.6998</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-3388.4901</v>
       </c>
-      <c r="O13" s="1">
-        <v>28600.3631</v>
-      </c>
-      <c r="P13" s="1">
-        <v>155425.3932</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0526</v>
+        <v>0.0573</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3649,7 +3628,7 @@
         <v>23.2533</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>5693.5785</v>
       </c>
       <c r="F14" s="1">
         <v>-5693.5785</v>
@@ -3658,34 +3637,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>131707.843</v>
       </c>
       <c r="I14" s="1">
-        <v>96963.28200000001</v>
+        <v>26730.9927</v>
       </c>
       <c r="J14" s="1">
-        <v>17.0303</v>
+        <v>158438.8357</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>87011.88890000001</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>15.2825</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>131707.843</v>
       </c>
-      <c r="O14" s="1">
-        <v>160308.2061</v>
-      </c>
-      <c r="P14" s="1">
-        <v>160308.2061</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.0309</v>
+        <v>0.0317</v>
       </c>
     </row>
   </sheetData>
@@ -3705,24 +3684,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -3770,7 +3749,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3787,43 +3766,37 @@
         <v>17.4608</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>572.7114</v>
       </c>
       <c r="G2" s="1">
-        <v>572.7114</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.112300000001</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>17.4608</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.112300000001</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3840,43 +3813,43 @@
         <v>16.886</v>
       </c>
       <c r="E3" s="1">
-        <v>20150</v>
+        <v>572.7114</v>
       </c>
       <c r="F3" s="1">
         <v>592.2066</v>
       </c>
       <c r="G3" s="1">
-        <v>1164.918</v>
+        <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>19568.8751</v>
+        <v>9620.6932</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>17.1686</v>
+        <v>9620.6932</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>17.4608</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19568.8751</v>
-      </c>
       <c r="Q3" s="3">
-        <v>-0.019</v>
+        <v>-0.0379</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3893,43 +3866,43 @@
         <v>17.59</v>
       </c>
       <c r="E4" s="1">
-        <v>30452.25</v>
+        <v>1164.918</v>
       </c>
       <c r="F4" s="1">
         <v>568.5048</v>
       </c>
       <c r="G4" s="1">
-        <v>1733.4228</v>
+        <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>30332.8196</v>
+        <v>20384.6672</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>17.3068</v>
+        <v>20384.6672</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>17.1686</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>30332.8196</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0258</v>
+        <v>0.0389</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3946,43 +3919,43 @@
         <v>15.0121</v>
       </c>
       <c r="E5" s="1">
-        <v>40909.0337</v>
+        <v>1733.4228</v>
       </c>
       <c r="F5" s="1">
         <v>666.1292999999999</v>
       </c>
       <c r="G5" s="1">
-        <v>2399.5522</v>
+        <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>35835.3919</v>
+        <v>25887.2834</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>-0</v>
       </c>
       <c r="J5" s="1">
-        <v>16.6698</v>
+        <v>25887.2834</v>
       </c>
       <c r="K5" s="1">
+        <v>30000</v>
+      </c>
+      <c r="L5" s="1">
+        <v>17.3068</v>
+      </c>
+      <c r="M5" s="1">
         <v>3.57</v>
       </c>
-      <c r="L5" s="1">
-        <v>5569.4876</v>
-      </c>
-      <c r="M5" s="1">
-        <v>10000</v>
-      </c>
       <c r="N5" s="1">
-        <v>-4430.5124</v>
+        <v>3742.8816</v>
       </c>
       <c r="O5" s="1">
-        <v>5569.4876</v>
+        <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>41404.8795</v>
+        <v>-6257.1184</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0266</v>
+        <v>-0.148</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3999,43 +3972,43 @@
         <v>15.3645</v>
       </c>
       <c r="E6" s="1">
+        <v>2399.5522</v>
+      </c>
+      <c r="F6" s="1">
+        <v>894.4568</v>
+      </c>
+      <c r="G6" s="1">
         <v>51522.6693</v>
       </c>
-      <c r="F6" s="1">
-        <v>971.2914</v>
-      </c>
-      <c r="G6" s="1">
-        <v>3370.8435</v>
-      </c>
       <c r="H6" s="1">
-        <v>51522.6693</v>
+        <v>36676.6749</v>
       </c>
       <c r="I6" s="1">
-        <v>54923.4063</v>
+        <v>3742.8816</v>
       </c>
       <c r="J6" s="1">
-        <v>16.2937</v>
+        <v>40419.5564</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>43742.8816</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>18.2296</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
-        <v>-14923.4063</v>
+        <v>0</v>
       </c>
       <c r="O6" s="1">
-        <v>646.0813000000001</v>
+        <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>52168.7505</v>
+        <v>-13742.8816</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0149</v>
+        <v>0.1263</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4052,43 +4025,43 @@
         <v>16.4953</v>
       </c>
       <c r="E7" s="1">
+        <v>3294.009</v>
+      </c>
+      <c r="F7" s="1">
+        <v>502.2523</v>
+      </c>
+      <c r="G7" s="1">
         <v>62295.5093</v>
       </c>
-      <c r="F7" s="1">
-        <v>425.4178</v>
-      </c>
-      <c r="G7" s="1">
-        <v>3796.2613</v>
-      </c>
       <c r="H7" s="1">
-        <v>62295.5093</v>
+        <v>54053.6989</v>
       </c>
       <c r="I7" s="1">
-        <v>61940.8002</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>16.3163</v>
+        <v>54053.6989</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>52027.6847</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>15.7946</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
-        <v>-7017.3939</v>
+        <v>0</v>
       </c>
       <c r="O7" s="1">
-        <v>3628.6874</v>
+        <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>65924.1967</v>
+        <v>-8284.8032</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0604</v>
+        <v>0.0721</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4105,43 +4078,43 @@
         <v>16.9701</v>
       </c>
       <c r="E8" s="1">
-        <v>73229.94190000001</v>
+        <v>3796.2613</v>
       </c>
       <c r="F8" s="1">
         <v>541.4657</v>
       </c>
       <c r="G8" s="1">
-        <v>4337.7271</v>
+        <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>73229.94190000001</v>
+        <v>64088.8631</v>
       </c>
       <c r="I8" s="1">
-        <v>71129.52800000001</v>
+        <v>1715.1968</v>
       </c>
       <c r="J8" s="1">
-        <v>16.3979</v>
+        <v>65804.06</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>61216.4125</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>16.1254</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-9188.727800000001</v>
       </c>
-      <c r="O8" s="1">
-        <v>4439.9596</v>
-      </c>
-      <c r="P8" s="1">
-        <v>77669.90150000001</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.023</v>
+        <v>0.0273</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4158,43 +4131,43 @@
         <v>17.9905</v>
       </c>
       <c r="E9" s="1">
-        <v>84328.39109999999</v>
+        <v>4337.7271</v>
       </c>
       <c r="F9" s="1">
         <v>374.0933</v>
       </c>
       <c r="G9" s="1">
-        <v>4711.8203</v>
+        <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>84328.39109999999</v>
+        <v>77633.16869999999</v>
       </c>
       <c r="I9" s="1">
-        <v>77859.65330000001</v>
+        <v>2526.469</v>
       </c>
       <c r="J9" s="1">
-        <v>16.5243</v>
+        <v>80159.63770000001</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>67946.53780000001</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>15.6641</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-6730.1253</v>
       </c>
-      <c r="O9" s="1">
-        <v>7709.8343</v>
-      </c>
-      <c r="P9" s="1">
-        <v>92038.2254</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0498</v>
+        <v>0.0575</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4211,43 +4184,43 @@
         <v>18.2369</v>
       </c>
       <c r="E10" s="1">
-        <v>95593.31690000001</v>
+        <v>4711.8203</v>
       </c>
       <c r="F10" s="1">
         <v>557.2644</v>
       </c>
       <c r="G10" s="1">
-        <v>5269.0848</v>
+        <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>95593.31690000001</v>
+        <v>85483.2582</v>
       </c>
       <c r="I10" s="1">
-        <v>88022.4292</v>
+        <v>5796.3437</v>
       </c>
       <c r="J10" s="1">
-        <v>16.7054</v>
+        <v>91279.602</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>78109.3137</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>16.5773</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-10162.7759</v>
       </c>
-      <c r="O10" s="1">
-        <v>7547.0584</v>
-      </c>
-      <c r="P10" s="1">
-        <v>103140.3753</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0108</v>
+        <v>0.0124</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4264,43 +4237,43 @@
         <v>19.1395</v>
       </c>
       <c r="E11" s="1">
-        <v>107027.2167</v>
+        <v>5269.0848</v>
       </c>
       <c r="F11" s="1">
         <v>352.0335</v>
       </c>
       <c r="G11" s="1">
-        <v>5621.1183</v>
+        <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>107027.2167</v>
+        <v>100324.4282</v>
       </c>
       <c r="I11" s="1">
-        <v>94760.1747</v>
+        <v>5633.5678</v>
       </c>
       <c r="J11" s="1">
-        <v>16.8579</v>
+        <v>105957.996</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>84847.0592</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>16.1028</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-6737.7455</v>
       </c>
-      <c r="O11" s="1">
-        <v>10809.3129</v>
-      </c>
-      <c r="P11" s="1">
-        <v>117836.5296</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0415</v>
+        <v>0.0462</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4317,43 +4290,43 @@
         <v>20.979</v>
       </c>
       <c r="E12" s="1">
-        <v>118632.6249</v>
+        <v>5621.1183</v>
       </c>
       <c r="F12" s="1">
         <v>63.1615</v>
       </c>
       <c r="G12" s="1">
-        <v>5684.2798</v>
+        <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>118632.6249</v>
+        <v>117314.4253</v>
       </c>
       <c r="I12" s="1">
-        <v>96085.24000000001</v>
+        <v>8895.822399999999</v>
       </c>
       <c r="J12" s="1">
-        <v>16.9037</v>
+        <v>126210.2477</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>86172.12450000001</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>15.3301</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-1325.0653</v>
       </c>
-      <c r="O12" s="1">
-        <v>19484.2476</v>
-      </c>
-      <c r="P12" s="1">
-        <v>138116.8726</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0804</v>
+        <v>0.08840000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4370,43 +4343,43 @@
         <v>22.3911</v>
       </c>
       <c r="E13" s="1">
-        <v>130412.1143</v>
+        <v>5684.2798</v>
       </c>
       <c r="F13" s="1">
         <v>170.3343</v>
       </c>
       <c r="G13" s="1">
-        <v>5854.6141</v>
+        <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>130412.1143</v>
+        <v>126617.9012</v>
       </c>
       <c r="I13" s="1">
-        <v>99899.2118</v>
+        <v>17570.7571</v>
       </c>
       <c r="J13" s="1">
-        <v>17.0633</v>
+        <v>144188.6583</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>89986.09639999999</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>15.8307</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-3813.9719</v>
       </c>
-      <c r="O13" s="1">
-        <v>25670.2757</v>
-      </c>
-      <c r="P13" s="1">
-        <v>156082.3901</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0538</v>
+        <v>0.0586</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4423,7 +4396,7 @@
         <v>23.2533</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>5854.6141</v>
       </c>
       <c r="F14" s="1">
         <v>-5854.6141</v>
@@ -4432,34 +4405,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>135433.0314</v>
       </c>
       <c r="I14" s="1">
-        <v>99899.2118</v>
+        <v>23756.7852</v>
       </c>
       <c r="J14" s="1">
-        <v>17.0633</v>
+        <v>159189.8165</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>89986.09639999999</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>15.3701</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>135433.0314</v>
       </c>
-      <c r="O14" s="1">
-        <v>161103.3071</v>
-      </c>
-      <c r="P14" s="1">
-        <v>161103.3071</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.03</v>
+        <v>0.0324</v>
       </c>
     </row>
   </sheetData>
@@ -4489,24 +4462,24 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1">
         <v>23.1906</v>
@@ -4514,131 +4487,131 @@
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1">
       <c r="A3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>17.6811</v>
+        <v>16.2454</v>
       </c>
       <c r="D3" s="1">
-        <v>16.9584</v>
+        <v>15.1021</v>
       </c>
       <c r="E3" s="1">
-        <v>16.9943</v>
+        <v>15.1902</v>
       </c>
       <c r="F3" s="1">
-        <v>17.0303</v>
+        <v>15.2825</v>
       </c>
       <c r="G3" s="1">
-        <v>17.0633</v>
+        <v>15.3701</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
       <c r="A4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="3">
         <v>0.3133</v>
       </c>
       <c r="C4" s="3">
-        <v>0.3578</v>
+        <v>0.3918</v>
       </c>
       <c r="D4" s="3">
-        <v>0.3195</v>
+        <v>0.3573</v>
       </c>
       <c r="E4" s="3">
-        <v>0.3256</v>
+        <v>0.363</v>
       </c>
       <c r="F4" s="3">
-        <v>0.3318</v>
+        <v>0.3683</v>
       </c>
       <c r="G4" s="3">
-        <v>0.338</v>
+        <v>0.3742</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" s="3">
         <v>0.2108</v>
       </c>
       <c r="C5" s="3">
-        <v>0.1068</v>
+        <v>0.2324</v>
       </c>
       <c r="D5" s="3">
-        <v>0.1031</v>
+        <v>0.2266</v>
       </c>
       <c r="E5" s="3">
-        <v>0.1039</v>
+        <v>0.228</v>
       </c>
       <c r="F5" s="3">
-        <v>0.1048</v>
+        <v>0.2293</v>
       </c>
       <c r="G5" s="3">
-        <v>0.1058</v>
+        <v>0.2302</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="4">
         <v>1.3902</v>
       </c>
       <c r="C6" s="4">
-        <v>3.1604</v>
+        <v>1.5984</v>
       </c>
       <c r="D6" s="4">
-        <v>2.903</v>
+        <v>1.4872</v>
       </c>
       <c r="E6" s="4">
-        <v>2.9371</v>
+        <v>1.503</v>
       </c>
       <c r="F6" s="4">
-        <v>2.9707</v>
+        <v>1.5174</v>
       </c>
       <c r="G6" s="4">
-        <v>3.0029</v>
+        <v>1.5374</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
       <c r="A7" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>0.7735</v>
+        <v>0.5242</v>
       </c>
       <c r="D7" s="3">
-        <v>0.7663</v>
+        <v>0.7109</v>
       </c>
       <c r="E7" s="3">
-        <v>0.7678</v>
+        <v>0.7123</v>
       </c>
       <c r="F7" s="3">
-        <v>0.7694</v>
+        <v>0.7135</v>
       </c>
       <c r="G7" s="3">
-        <v>0.771</v>
+        <v>0.7154</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
       <c r="A8" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>5569.4876</v>
+        <v>3742.8816</v>
       </c>
       <c r="D8" s="1">
-        <v>5508.3777</v>
+        <v>3742.8816</v>
       </c>
       <c r="E8" s="1">
-        <v>5535.9655</v>
+        <v>3742.8816</v>
       </c>
       <c r="F8" s="1">
-        <v>5563.6451</v>
+        <v>3742.8816</v>
       </c>
       <c r="G8" s="1">
-        <v>5569.4876</v>
+        <v>3742.8816</v>
       </c>
     </row>
   </sheetData>
